--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints0.600000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints0.600000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.601812101230845e-35</v>
+        <v>8.39369000328366e-36</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>1.587909262281604e-35</v>
+        <v>8.420786241409383e-36</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>1.574685938702558e-35</v>
+        <v>8.446098308242561e-36</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>1.562156382054025e-35</v>
+        <v>8.47010458934947e-36</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>1.550334843896321e-35</v>
+        <v>8.493283470296389e-36</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>1.539235575789759e-35</v>
+        <v>8.516113336649594e-36</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>1.52887282929466e-35</v>
+        <v>8.53907257397537e-36</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>1.519260855971335e-35</v>
+        <v>8.562639567839987e-36</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>1.510413907380104e-35</v>
+        <v>8.587292703809729e-36</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>1.50234623508128e-35</v>
+        <v>8.61351036745087e-36</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>1.495072090635185e-35</v>
+        <v>8.641770944329681e-36</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>1.488605725602127e-35</v>
+        <v>8.672552820012461e-36</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>1.482961391542424e-35</v>
+        <v>8.706334380065475e-36</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>1.478153340016395e-35</v>
+        <v>8.743594010055005e-36</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>1.474195822584354e-35</v>
+        <v>8.784810095547326e-36</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>1.471103090806618e-35</v>
+        <v>8.83046102210872e-36</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>1.468889396243503e-35</v>
+        <v>8.881025175305465e-36</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>1.467568990455325e-35</v>
+        <v>8.936980940703834e-36</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>1.467156125002399e-35</v>
+        <v>8.99880670387011e-36</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>1.467665051445042e-35</v>
+        <v>9.06698085037057e-36</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>1.469110021343571e-35</v>
+        <v>9.141981765771494e-36</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>1.471505286258301e-35</v>
+        <v>9.224287835639158e-36</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>1.474865097749547e-35</v>
+        <v>9.314377445539842e-36</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>1.479203707377627e-35</v>
+        <v>9.41272898103982e-36</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>1.484535366702856e-35</v>
+        <v>9.519820827705376e-36</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>1.49087432728555e-35</v>
+        <v>9.636131371102787e-36</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>1.498234840686025e-35</v>
+        <v>9.762138996798327e-36</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>1.506631158464598e-35</v>
+        <v>9.898322090358281e-36</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>1.516077532181579e-35</v>
+        <v>1.004515903734885e-35</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>1.526588213397294e-35</v>
+        <v>1.020312822333645e-35</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>1.538177453672055e-35</v>
+        <v>1.03727080338873e-35</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>1.550859504566177e-35</v>
+        <v>1.055437685456767e-35</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>1.564648617639976e-35</v>
+        <v>1.074861307094384e-35</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>1.57955904445377e-35</v>
+        <v>1.09558950685821e-35</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>1.595605036567872e-35</v>
+        <v>1.117670123304871e-35</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>1.612800845542601e-35</v>
+        <v>1.141150994990996e-35</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>1.631160722938272e-35</v>
+        <v>1.166079960473213e-35</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>1.6506989203152e-35</v>
+        <v>1.192504858308148e-35</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>1.671429689233702e-35</v>
+        <v>1.220473527052431e-35</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>1.693367281254094e-35</v>
+        <v>1.250033805262689e-35</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>1.716525947936692e-35</v>
+        <v>1.28123353149555e-35</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>1.740919940841812e-35</v>
+        <v>1.314120544307641e-35</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>1.766563511529771e-35</v>
+        <v>1.348742682255591e-35</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>1.793470911560882e-35</v>
+        <v>1.385147783896027e-35</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>1.821656392495465e-35</v>
+        <v>1.423383687785577e-35</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>1.851134205893834e-35</v>
+        <v>1.463498232480869e-35</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>1.881918603316305e-35</v>
+        <v>1.505539256538531e-35</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>1.91402487012663e-35</v>
+        <v>1.549555397437603e-35</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>1.947720201834174e-35</v>
+        <v>1.595789968604925e-35</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>1.983850839468573e-35</v>
+        <v>1.644933769356326e-35</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>2.0233440770951e-35</v>
+        <v>1.697740236725124e-35</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>2.067127208779029e-35</v>
+        <v>1.754962807744643e-35</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>2.116127528585631e-35</v>
+        <v>1.817354919448203e-35</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>2.171272330580182e-35</v>
+        <v>1.885670008869126e-35</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>2.233488908827952e-35</v>
+        <v>1.960661513040733e-35</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>2.303704557394216e-35</v>
+        <v>2.043082868996343e-35</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>2.382846570344246e-35</v>
+        <v>2.13368751376928e-35</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>2.471842241743316e-35</v>
+        <v>2.233228884392865e-35</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>2.571618865656699e-35</v>
+        <v>2.342460417900419e-35</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>2.683103736149668e-35</v>
+        <v>2.462135551325261e-35</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>2.807224147287496e-35</v>
+        <v>2.593007721700715e-35</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>2.944907393135455e-35</v>
+        <v>2.735830366060101e-35</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>3.097080767758821e-35</v>
+        <v>2.891356921436741e-35</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>3.264671565222864e-35</v>
+        <v>3.060340824863954e-35</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>3.448607079592859e-35</v>
+        <v>3.243535513375064e-35</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>3.649814604933975e-35</v>
+        <v>3.441694424003291e-35</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>3.869448664678185e-35</v>
+        <v>3.655831199909093e-35</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>4.111098777022651e-35</v>
+        <v>3.889747858690376e-35</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>4.379832603369672e-35</v>
+        <v>4.148939077324402e-35</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>4.68073858733738e-35</v>
+        <v>4.438923331032357e-35</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>5.018905172543909e-35</v>
+        <v>4.765219095035433e-35</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>5.399420802607395e-35</v>
+        <v>5.133344844554816e-35</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>5.827373921145967e-35</v>
+        <v>5.548819054811695e-35</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>6.307852971777758e-35</v>
+        <v>6.017160201027256e-35</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>6.845946398120904e-35</v>
+        <v>6.543886758422693e-35</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>7.446742643793538e-35</v>
+        <v>7.134517202219193e-35</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>8.115330152413787e-35</v>
+        <v>7.79457000763794e-35</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>8.856797367599795e-35</v>
+        <v>8.52956364990013e-35</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>9.676232732969687e-35</v>
+        <v>9.345016604226944e-35</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>1.05787246921416e-34</v>
+        <v>1.024644734583957e-34</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>1.156786072839294e-34</v>
+        <v>1.123783065713106e-34</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>1.26302507908932e-34</v>
+        <v>1.230568043433305e-34</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>1.374177121937541e-34</v>
+        <v>1.342547137733224e-34</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>1.487812907399602e-34</v>
+        <v>1.457250408703265e-34</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>1.601503141491095e-34</v>
+        <v>1.572207916433779e-34</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>1.712818530227777e-34</v>
+        <v>1.684949721015282e-34</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>1.819329779625239e-34</v>
+        <v>1.793005882538123e-34</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>1.918607595699126e-34</v>
+        <v>1.893906461092705e-34</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>2.008222684465084e-34</v>
+        <v>1.985181516769434e-34</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>2.085745751938759e-34</v>
+        <v>2.064361109658714e-34</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>2.148747504135798e-34</v>
+        <v>2.12897529985095e-34</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>2.194798647071845e-34</v>
+        <v>2.176554147436545e-34</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>2.221469886762548e-34</v>
+        <v>2.204627712505904e-34</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>2.226331929223552e-34</v>
+        <v>2.210726055149431e-34</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>2.207197276891156e-34</v>
+        <v>2.192624031196015e-34</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>2.164768022859741e-34</v>
+        <v>2.151021930511761e-34</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>2.101648579113292e-34</v>
+        <v>2.088545958806165e-34</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>2.020476817921971e-34</v>
+        <v>2.007856197126672e-34</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>1.923890611555946e-34</v>
+        <v>1.911612726520725e-34</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>1.814527832285379e-34</v>
+        <v>1.802475628035773e-34</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>1.695026352380438e-34</v>
+        <v>1.68310498271926e-34</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>1.568024044111286e-34</v>
+        <v>1.556160871618633e-34</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>1.436158779748153e-34</v>
+        <v>1.424303375781402e-34</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>1.302068431561075e-34</v>
+        <v>1.290192576254884e-34</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>1.16839087182028e-34</v>
+        <v>1.156488554086589e-34</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>1.037763972795933e-34</v>
+        <v>1.025851390323962e-34</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>9.128256067581994e-35</v>
+        <v>9.009411660144475e-35</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>7.96213645977244e-35</v>
+        <v>7.84417962205494e-35</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>6.905659627232316e-35</v>
+        <v>6.78941859944546e-35</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>5.983284353492031e-35</v>
+        <v>5.869765067726816e-35</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>5.192502794948866e-35</v>
+        <v>5.082265309859822e-35</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>4.510913646701643e-35</v>
+        <v>4.403612139199658e-35</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>3.915651464109707e-35</v>
+        <v>3.81002349678349e-35</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>3.386072467214917e-35</v>
+        <v>3.280129915529423e-35</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>2.914356205457049e-35</v>
+        <v>2.806487279303245e-35</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>2.497273037042306e-35</v>
+        <v>2.386636809336912e-35</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>2.131599150122339e-35</v>
+        <v>2.018126057826354e-35</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>1.814108804655029e-35</v>
+        <v>1.698496566968946e-35</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>1.541427683269487e-35</v>
+        <v>1.424826777409708e-35</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>1.30992996261332e-35</v>
+        <v>1.193411209316469e-35</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>1.115965500144461e-35</v>
+        <v>1.00046858223134e-35</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>9.558841533209154e-36</v>
+        <v>8.42217615696502e-36</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>8.260357796004642e-36</v>
+        <v>7.148770292539133e-36</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>7.227702364411276e-36</v>
+        <v>6.146655424457697e-36</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>6.424373813008403e-36</v>
+        <v>5.378018748141827e-36</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>5.813870716375373e-36</v>
+        <v>4.80504745901263e-36</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>5.359691649091535e-36</v>
+        <v>4.389928752491218e-36</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>5.025335185736232e-36</v>
+        <v>4.0948498239987e-36</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>4.774299900888816e-36</v>
+        <v>3.881997868956187e-36</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>4.570084369128634e-36</v>
+        <v>3.71356008278479e-36</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>4.376187165035033e-36</v>
+        <v>3.551723660905618e-36</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>4.156117761327776e-36</v>
+        <v>3.358687592710278e-36</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>3.888464634119242e-36</v>
+        <v>3.112969369132556e-36</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>3.596820643758531e-36</v>
+        <v>2.841790237876464e-36</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>3.313137821918108e-36</v>
+        <v>2.581417744108779e-36</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>3.06936820027044e-36</v>
+        <v>2.368119432996278e-36</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>2.896479119806965e-36</v>
+        <v>2.236973212989267e-36</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>2.804802017306434e-36</v>
+        <v>2.198126088039747e-36</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>2.785091918037602e-36</v>
+        <v>2.238074165063907e-36</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>2.827331239680427e-36</v>
+        <v>2.34238013871682e-36</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>2.921502399914948e-36</v>
+        <v>2.496606703653728e-36</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>3.057587816421151e-36</v>
+        <v>2.686316554529732e-36</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>3.225569906879031e-36</v>
+        <v>2.897072385999966e-36</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>3.41543108896858e-36</v>
+        <v>3.114436892719568e-36</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>3.617153780369793e-36</v>
+        <v>3.323972769343673e-36</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>3.820721887617164e-36</v>
+        <v>3.511245223292452e-36</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>4.019384375172419e-36</v>
+        <v>3.667329955707217e-36</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>4.216578438868005e-36</v>
+        <v>3.800497518861871e-36</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>4.417722939881161e-36</v>
+        <v>3.922362955291524e-36</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>4.628236739389133e-36</v>
+        <v>4.044541307531293e-36</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>4.853538698569158e-36</v>
+        <v>4.178647618116288e-36</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>5.099047678598484e-36</v>
+        <v>4.336296929581625e-36</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>5.370182540654349e-36</v>
+        <v>4.529104284462413e-36</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>5.672362145913995e-36</v>
+        <v>4.768684725293769e-36</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>6.011005355554666e-36</v>
+        <v>5.066653294610804e-36</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>6.392262591652582e-36</v>
+        <v>5.434395542994299e-36</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>6.827147693140363e-36</v>
+        <v>5.881771358512629e-36</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>7.328658492108658e-36</v>
+        <v>6.418018247054021e-36</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>7.9097986731353e-36</v>
+        <v>7.052371878571066e-36</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>8.58357192079778e-36</v>
+        <v>7.794067923015967e-36</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>9.362981919674584e-36</v>
+        <v>8.652342050342034e-36</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>1.026103235434324e-35</v>
+        <v>9.636429930501521e-36</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>1.12907269093816e-35</v>
+        <v>1.075556723344702e-35</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>1.246506926936749e-35</v>
+        <v>1.201898962913113e-35</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>1.379706311887876e-35</v>
+        <v>1.343593278750644e-35</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>1.529971214249323e-35</v>
+        <v>1.501563237852553e-35</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>1.698602002478875e-35</v>
+        <v>1.6767324072141e-35</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>1.886899045034315e-35</v>
+        <v>1.870024353830544e-35</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>2.096161381809765e-35</v>
+        <v>2.082361435650192e-35</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>2.325849811015368e-35</v>
+        <v>2.312993135946456e-35</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>2.569938764626608e-35</v>
+        <v>2.556176121644845e-35</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>2.821383630006399e-35</v>
+        <v>2.805239687639315e-35</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>3.073139794517657e-35</v>
+        <v>3.053513128823825e-35</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>3.318162645523301e-35</v>
+        <v>3.294325740092334e-35</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>3.549407570386247e-35</v>
+        <v>3.521006816338799e-35</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>3.759829956469409e-35</v>
+        <v>3.726885652457177e-35</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>3.942385191135626e-35</v>
+        <v>3.90529154334135e-35</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>4.090028661747992e-35</v>
+        <v>4.049553783885449e-35</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>4.195812335170808e-35</v>
+        <v>4.15309290028112e-35</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>4.256992953328901e-35</v>
+        <v>4.213301349406787e-35</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>4.276565172619826e-35</v>
+        <v>4.2329917588383e-35</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>4.257936176433594e-35</v>
+        <v>4.215366438975653e-35</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>4.204513148160217e-35</v>
+        <v>4.163627700218839e-35</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>4.119703271189706e-35</v>
+        <v>4.08097785296785e-35</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>4.006913728912073e-35</v>
+        <v>3.970619207622677e-35</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>3.86955170471733e-35</v>
+        <v>3.835754074583314e-35</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>3.711024381995489e-35</v>
+        <v>3.679584764249753e-35</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>3.534738977801441e-35</v>
+        <v>3.505313725792457e-35</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>3.344124102403137e-35</v>
+        <v>3.316231593635838e-35</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>3.142666400847645e-35</v>
+        <v>3.115868228155152e-35</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>2.933862264540934e-35</v>
+        <v>2.907793665324009e-35</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>2.721208084888977e-35</v>
+        <v>2.695577941116016e-35</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>2.508200253297746e-35</v>
+        <v>2.482791091504784e-35</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>2.298335161173214e-35</v>
+        <v>2.273003152463924e-35</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>2.09510919992135e-35</v>
+        <v>2.069784159967043e-35</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>1.90201876094813e-35</v>
+        <v>1.876704149987753e-35</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>1.722560235659606e-35</v>
+        <v>1.697333158499744e-35</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>1.55968472771105e-35</v>
+        <v>1.534684971717286e-35</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>1.41322031144961e-35</v>
+        <v>1.388587563778647e-35</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>1.281885168240157e-35</v>
+        <v>1.257736703480059e-35</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>1.164396147635218e-35</v>
+        <v>1.140826801031774e-35</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>1.059470099187322e-35</v>
+        <v>1.036552266644039e-35</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>9.658238724489963e-36</v>
+        <v>9.436075105271066e-36</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>8.821743169727705e-36</v>
+        <v>8.60686942891225e-36</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>8.072382823111722e-36</v>
+        <v>7.86484973946645e-36</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>7.397326180167297e-36</v>
+        <v>7.196960139036157e-36</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>6.783892651284885e-36</v>
+        <v>6.590299312324811e-36</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>6.223978611750052e-36</v>
+        <v>6.036654144479682e-36</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>5.714771889308257e-36</v>
+        <v>5.53323157309316e-36</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>5.253755067300995e-36</v>
+        <v>5.07754045490009e-36</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>4.83841072906975e-36</v>
+        <v>4.667089646635308e-36</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>4.466221457956017e-36</v>
+        <v>4.299388005033652e-36</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>4.134669837301285e-36</v>
+        <v>3.971944386829961e-36</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>3.841238450447174e-36</v>
+        <v>3.682267648759205e-36</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>3.583409880734893e-36</v>
+        <v>3.427866647555942e-36</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>3.358666711506082e-36</v>
+        <v>3.206250239955162e-36</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>3.164491526102233e-36</v>
+        <v>3.014927282691701e-36</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>2.998366907864834e-36</v>
+        <v>2.851406632500399e-36</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>2.857775440135375e-36</v>
+        <v>2.713197146116093e-36</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>2.740199706255347e-36</v>
+        <v>2.597807680273624e-36</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>2.643122289566238e-36</v>
+        <v>2.502747091707828e-36</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>2.56402577340954e-36</v>
+        <v>2.425524237153545e-36</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>2.500392741126742e-36</v>
+        <v>2.363647973345613e-36</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>2.449705776059333e-36</v>
+        <v>2.314627157018871e-36</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>2.409447461548804e-36</v>
+        <v>2.275970644908156e-36</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>2.377100380936645e-36</v>
+        <v>2.245187293748308e-36</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>2.350147117564346e-36</v>
+        <v>2.219785960274165e-36</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>2.326070254773395e-36</v>
+        <v>2.197275501220565e-36</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>2.302352375905285e-36</v>
+        <v>2.175164773322348e-36</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>2.276476064301502e-36</v>
+        <v>2.150962633314351e-36</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>2.24592390330354e-36</v>
+        <v>2.122177937931413e-36</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>2.208178476252886e-36</v>
+        <v>2.086319543908373e-36</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>2.160722366491031e-36</v>
+        <v>2.040896307980068e-36</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>2.101038157359496e-36</v>
+        <v>1.983417086881368e-36</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>2.026638461690667e-36</v>
+        <v>1.911420619257032e-36</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>1.937012984131624e-36</v>
+        <v>1.824413019080083e-36</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>1.834821223347117e-36</v>
+        <v>1.725054616278356e-36</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>1.723008038363972e-36</v>
+        <v>1.616289698728352e-36</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>1.60451828820902e-36</v>
+        <v>1.50106255430657e-36</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>1.482296831909089e-36</v>
+        <v>1.382317470889512e-36</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>1.359288528491008e-36</v>
+        <v>1.262998736353678e-36</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>1.238438236981606e-36</v>
+        <v>1.146050638575569e-36</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>1.12269081640771e-36</v>
+        <v>1.034417465431684e-36</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>1.01499112579615e-36</v>
+        <v>9.310435047985238e-37</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>9.182840241737555e-37</v>
+        <v>8.388730445525892e-37</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>8.355143705673546e-37</v>
+        <v>7.608503725703807e-37</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>7.696270240037758e-37</v>
+        <v>6.999197767283985e-37</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>7.235668435098477e-37</v>
+        <v>6.590255449031431e-37</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>7.002504682625114e-37</v>
+        <v>6.410834351854825e-37</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>7.005061625370343e-37</v>
+        <v>6.468978943552553e-37</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>7.216748659434223e-37</v>
+        <v>6.737477435945644e-37</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>7.607662369839025e-37</v>
+        <v>7.185768845509959e-37</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>8.147899341606757e-37</v>
+        <v>7.783292188720999e-37</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>8.807556159759474e-37</v>
+        <v>8.499486482054347e-37</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>9.556729409319242e-37</v>
+        <v>9.303790741985598e-37</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>1.036551567530811e-36</v>
+        <v>1.016564398499033e-36</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>1.120401154274814e-36</v>
+        <v>1.105448522754413e-36</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>1.204231359666139e-36</v>
+        <v>1.193975348612258e-36</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>1.285051842206993e-36</v>
+        <v>1.279088777720127e-36</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>1.359872260399579e-36</v>
+        <v>1.357732711725579e-36</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>1.425702272746106e-36</v>
+        <v>1.426851052276171e-36</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>1.479551537748777e-36</v>
+        <v>1.483387701019463e-36</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>1.518505616486952e-36</v>
+        <v>1.524364623415713e-36</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>1.541597269066241e-36</v>
+        <v>1.54880642812624e-36</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>1.549925410455331e-36</v>
+        <v>1.557862709976121e-36</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>1.544688675594429e-36</v>
+        <v>1.55278562316946e-36</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>1.527085699423735e-36</v>
+        <v>1.534827321910354e-36</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>1.498315116883452e-36</v>
+        <v>1.505239960402904e-36</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>1.459575562913785e-36</v>
+        <v>1.465275692851211e-36</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>1.412065672454935e-36</v>
+        <v>1.416186673459375e-36</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>1.356984080447106e-36</v>
+        <v>1.359225056431495e-36</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>1.295529421830501e-36</v>
+        <v>1.295642995971673e-36</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>1.228900331545323e-36</v>
+        <v>1.226692646284008e-36</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>1.158295444531774e-36</v>
+        <v>1.153626161572601e-36</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>1.084913395730059e-36</v>
+        <v>1.077695696041551e-36</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>1.009952820080379e-36</v>
+        <v>1.00015340389496e-36</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>9.34612352522939e-37</v>
+        <v>9.222514393369267e-37</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>8.60090627998012e-37</v>
+        <v>8.452419565716256e-37</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>7.87586281445587e-37</v>
+        <v>7.703771098029357e-37</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>7.182979478061468e-37</v>
+        <v>6.989090532352459e-37</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>6.534242620196876e-37</v>
+        <v>6.320899410724429e-37</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>5.940782245538026e-37</v>
+        <v>5.710822461767599e-37</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>5.404793432288837e-37</v>
+        <v>5.161127245535812e-37</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>4.923156881955123e-37</v>
+        <v>4.668515801341763e-37</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>4.492682913472902e-37</v>
+        <v>4.22961645982556e-37</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>4.110181845778185e-37</v>
+        <v>3.841057551627306e-37</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>3.772463997806981e-37</v>
+        <v>3.499467407387106e-37</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>3.476339688495311e-37</v>
+        <v>3.201474357745069e-37</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>3.218619236779181e-37</v>
+        <v>2.943706733341297e-37</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>2.996112961594609e-37</v>
+        <v>2.722792864815896e-37</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>2.805631181877606e-37</v>
+        <v>2.535361082808974e-37</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>2.643984216564186e-37</v>
+        <v>2.378039717960634e-37</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>2.507982384590361e-37</v>
+        <v>2.247457100910982e-37</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>2.394436004892145e-37</v>
+        <v>2.140241562300124e-37</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>2.300155396405551e-37</v>
+        <v>2.053021432768166e-37</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>2.221950878066593e-37</v>
+        <v>1.982425042955212e-37</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>2.156632768811283e-37</v>
+        <v>1.925080723501369e-37</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>2.101011387575634e-37</v>
+        <v>1.877616805046741e-37</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>2.051897053295661e-37</v>
+        <v>1.836661618231434e-37</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>2.006104189387338e-37</v>
+        <v>1.798847838339517e-37</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>1.961351906807133e-37</v>
+        <v>1.761765763860987e-37</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>1.917395024611618e-37</v>
+        <v>1.725160516061561e-37</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>1.874266496888507e-37</v>
+        <v>1.689071625655837e-37</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>1.831999277725512e-37</v>
+        <v>1.65353862335841e-37</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>1.79062632121035e-37</v>
+        <v>1.618601039883877e-37</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>1.750180581430733e-37</v>
+        <v>1.584298405946834e-37</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>1.710695012474377e-37</v>
+        <v>1.550670252261879e-37</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>1.672202568428993e-37</v>
+        <v>1.517756109543608e-37</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>1.634736203382299e-37</v>
+        <v>1.485595508506617e-37</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>1.598328871422005e-37</v>
+        <v>1.454227979865503e-37</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>1.563013526635829e-37</v>
+        <v>1.423693054334863e-37</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>1.528823123111481e-37</v>
+        <v>1.394030262629293e-37</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>1.495790614936678e-37</v>
+        <v>1.365279135463389e-37</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>1.463948956199133e-37</v>
+        <v>1.337479203551749e-37</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>1.433331100986589e-37</v>
+        <v>1.310669997608994e-37</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>1.403970003386673e-37</v>
+        <v>1.284891048349644e-37</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>1.375898617487214e-37</v>
+        <v>1.260181886488396e-37</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>1.34914989737584e-37</v>
+        <v>1.236582042739774e-37</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>1.323756797140295e-37</v>
+        <v>1.214131047818397e-37</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>1.299752270868291e-37</v>
+        <v>1.192868432438862e-37</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>1.277169272647545e-37</v>
+        <v>1.172833727315768e-37</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>1.256040756565768e-37</v>
+        <v>1.154066463163708e-37</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>1.236399676710677e-37</v>
+        <v>1.136606170697281e-37</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>1.218278987169983e-37</v>
+        <v>1.120492380631083e-37</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>1.201711642031402e-37</v>
+        <v>1.105764623679711e-37</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>1.186730595382647e-37</v>
+        <v>1.092462430557759e-37</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>1.173368801311434e-37</v>
+        <v>1.080625331979827e-37</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>1.161659213905474e-37</v>
+        <v>1.07029285866051e-37</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>1.151634787252484e-37</v>
+        <v>1.061504541314405e-37</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>1.143328475440176e-37</v>
+        <v>1.054299910656108e-37</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>1.136773232556265e-37</v>
+        <v>1.048718497400216e-37</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>1.132002012688464e-37</v>
+        <v>1.044799832261325e-37</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>1.129047769924489e-37</v>
+        <v>1.042583445954032e-37</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>1.127943458352051e-37</v>
+        <v>1.042108869192934e-37</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>1.128722032058868e-37</v>
+        <v>1.043415632692627e-37</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>1.131416445132651e-37</v>
+        <v>1.046543267167707e-37</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>1.136059651661115e-37</v>
+        <v>1.051531303332772e-37</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>1.142700692021288e-37</v>
+        <v>1.05843651703014e-37</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>1.151538468631507e-37</v>
+        <v>1.067476342038381e-37</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>1.162853431986886e-37</v>
+        <v>1.078955634845683e-37</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>1.17692684900262e-37</v>
+        <v>1.093180127174309e-37</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>1.194039986593904e-37</v>
+        <v>1.110455550746525e-37</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>1.214474111675934e-37</v>
+        <v>1.131087637284597e-37</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>1.238510491163906e-37</v>
+        <v>1.15538211851079e-37</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>1.266430391973017e-37</v>
+        <v>1.18364472614737e-37</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>1.298515081018461e-37</v>
+        <v>1.216181191916601e-37</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>1.335045825215434e-37</v>
+        <v>1.25329724754075e-37</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>1.376303891479133e-37</v>
+        <v>1.295298624742081e-37</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>1.422570546724753e-37</v>
+        <v>1.34249105524286e-37</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>1.474127057867491e-37</v>
+        <v>1.395180270765352e-37</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>1.53125469182254e-37</v>
+        <v>1.453672003031823e-37</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>1.594234715505035e-37</v>
+        <v>1.518271983764473e-37</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>1.663348395830362e-37</v>
+        <v>1.589285944685763e-37</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>1.738876999713449e-37</v>
+        <v>1.667019617517685e-37</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>1.821101794069702e-37</v>
+        <v>1.751778733982718e-37</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>1.910304045814246e-37</v>
+        <v>1.843869025803056e-37</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>2.006765021862278e-37</v>
+        <v>1.943596224700965e-37</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>2.110765989128994e-37</v>
+        <v>2.051266062398712e-37</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>2.222588214529588e-37</v>
+        <v>2.167184270618558e-37</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>2.342512964979257e-37</v>
+        <v>2.291656581082772e-37</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>2.470818109480523e-37</v>
+        <v>2.424985151326485e-37</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>2.606894031154011e-37</v>
+        <v>2.566538612651482e-37</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>2.748061866948695e-37</v>
+        <v>2.713509003329846e-37</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>2.891348412516028e-37</v>
+        <v>2.862778750710945e-37</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>3.033780463507468e-37</v>
+        <v>3.011230282144149e-37</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>3.172384815574471e-37</v>
+        <v>3.155746024978827e-37</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>3.30418826436849e-37</v>
+        <v>3.293208406564347e-37</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>3.426217605540983e-37</v>
+        <v>3.420499854250078e-37</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>3.535499634743405e-37</v>
+        <v>3.534502795385389e-37</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>3.629061147627211e-37</v>
+        <v>3.632099657319649e-37</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>3.703928939843858e-37</v>
+        <v>3.710172867402227e-37</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>3.757129807044799e-37</v>
+        <v>3.765604852982491e-37</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>3.785690544881491e-37</v>
+        <v>3.79527804140981e-37</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>3.786637949005392e-37</v>
+        <v>3.796074860033554e-37</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>3.757055654831404e-37</v>
+        <v>3.764937853638045e-37</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>3.696939852921441e-37</v>
+        <v>3.701890074982472e-37</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>3.610536077575037e-37</v>
+        <v>3.611448959459486e-37</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>3.502426076837515e-37</v>
+        <v>3.498487544011887e-37</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>3.3771915987542e-37</v>
+        <v>3.367878865582474e-37</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>3.239414391370419e-37</v>
+        <v>3.224495961114046e-37</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>3.093676202731494e-37</v>
+        <v>3.073211867549405e-37</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>2.944558780882753e-37</v>
+        <v>2.918899621831349e-37</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>2.79664387386952e-37</v>
+        <v>2.766432260902679e-37</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>2.654513229737119e-37</v>
+        <v>2.620682821706195e-37</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>2.522258219787626e-37</v>
+        <v>2.485995980831849e-37</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>2.400631409514289e-37</v>
+        <v>2.363118991787198e-37</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>2.288993707513548e-37</v>
+        <v>2.251299656200887e-37</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>2.186701415215641e-37</v>
+        <v>2.149780811673407e-37</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>2.093110834050808e-37</v>
+        <v>2.057805295805255e-37</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>2.007578265449289e-37</v>
+        <v>1.974615946196922e-37</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>1.929460010841395e-37</v>
+        <v>1.899455600448972e-37</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>1.858112371657217e-37</v>
+        <v>1.831567096161754e-37</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>1.792891649327071e-37</v>
+        <v>1.770193270935836e-37</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>1.733154145281199e-37</v>
+        <v>1.714576962371714e-37</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>1.67825616094984e-37</v>
+        <v>1.66396100806988e-37</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>1.627553997763234e-37</v>
+        <v>1.617588245630829e-37</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>1.58040395715162e-37</v>
+        <v>1.574701512655052e-37</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>1.536162340545238e-37</v>
+        <v>1.534543646743045e-37</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>1.494185449374328e-37</v>
+        <v>1.4963574854953e-37</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>1.453829585069129e-37</v>
+        <v>1.459385866512313e-37</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>1.414451049059882e-37</v>
+        <v>1.422871627394574e-37</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>1.375406142776825e-37</v>
+        <v>1.386057605742579e-37</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>1.336062532042931e-37</v>
+        <v>1.348200356550823e-37</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>1.296183417318697e-37</v>
+        <v>1.309033865028677e-37</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>1.256020547826295e-37</v>
+        <v>1.268881819329671e-37</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>1.215855900513953e-37</v>
+        <v>1.228104393994053e-37</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>1.175971452329899e-37</v>
+        <v>1.187061763562075e-37</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>1.136649180222359e-37</v>
+        <v>1.146114102573985e-37</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>1.098171061139562e-37</v>
+        <v>1.105621585570032e-37</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>1.060819072029737e-37</v>
+        <v>1.065944387090465e-37</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>1.024875189841109e-37</v>
+        <v>1.027442681675535e-37</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>9.906213915219071e-38</v>
+        <v>9.904766438654898e-38</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>9.583396540203587e-38</v>
+        <v>9.554064482005795e-38</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>9.283119542846921e-38</v>
+        <v>9.225922692210536e-38</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>9.007535402381964e-38</v>
+        <v>8.923200924398016e-38</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>8.75546936450004e-38</v>
+        <v>8.645059830532155e-38</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>8.524711696909546e-38</v>
+        <v>8.389509378748298e-38</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>8.313052338080396e-38</v>
+        <v>8.15455917113596e-38</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>8.118281226482511e-38</v>
+        <v>7.938218809784645e-38</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>7.93818830058581e-38</v>
+        <v>7.738497896783862e-38</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>7.770563498860212e-38</v>
+        <v>7.553406034223119e-38</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>7.613247927940706e-38</v>
+        <v>7.380994898400885e-38</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>7.465041860667714e-38</v>
+        <v>7.220104862245666e-38</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>7.325597425074232e-38</v>
+        <v>7.07027675634998e-38</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>7.194596360399895e-38</v>
+        <v>6.931075759806901e-38</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>7.071720405884327e-38</v>
+        <v>6.8020670517095e-38</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>6.956651300767167e-38</v>
+        <v>6.682815811150859e-38</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>6.849070784288149e-38</v>
+        <v>6.572887217224147e-38</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>6.748660595686694e-38</v>
+        <v>6.471846449022232e-38</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>6.655102474202546e-38</v>
+        <v>6.379258685638296e-38</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>6.568078159075333e-38</v>
+        <v>6.294689106165416e-38</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>6.487269389544693e-38</v>
+        <v>6.217702889696664e-38</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>6.412357904850256e-38</v>
+        <v>6.147865215325116e-38</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>6.343025444231656e-38</v>
+        <v>6.084741262143848e-38</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>6.278953746928521e-38</v>
+        <v>6.027896209245932e-38</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>6.219824552180492e-38</v>
+        <v>5.976895235724444e-38</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>6.165319599227192e-38</v>
+        <v>5.931303520672459e-38</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>6.11512062730826e-38</v>
+        <v>5.890686243183051e-38</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>6.068909375663329e-38</v>
+        <v>5.854608582349294e-38</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>6.026367583532028e-38</v>
+        <v>5.822635717264263e-38</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>5.987176990153993e-38</v>
+        <v>5.794332827021034e-38</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>5.951019334768853e-38</v>
+        <v>5.769265090712679e-38</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>5.917576356616246e-38</v>
+        <v>5.746997687432277e-38</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>5.8865297949358e-38</v>
+        <v>5.727095796272896e-38</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>5.857561388967149e-38</v>
+        <v>5.709124596327618e-38</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>5.830352877949924e-38</v>
+        <v>5.69264926668951e-38</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>5.804586001123762e-38</v>
+        <v>5.677234986451654e-38</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>5.779942497728293e-38</v>
+        <v>5.662446934707119e-38</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>5.756104107003151e-38</v>
+        <v>5.647850290548985e-38</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>5.732770936121258e-38</v>
+        <v>5.63303430353443e-38</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>5.70990879835664e-38</v>
+        <v>5.617936420759703e-38</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>5.68768347557605e-38</v>
+        <v>5.602756140405281e-38</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>5.666265636217782e-38</v>
+        <v>5.587699364314087e-38</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>5.645825948720124e-38</v>
+        <v>5.572971994329054e-38</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>5.626535081521364e-38</v>
+        <v>5.558779932293102e-38</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>5.60856370305979e-38</v>
+        <v>5.545329080049159e-38</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>5.592082481773689e-38</v>
+        <v>5.532825339440149e-38</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>5.577262086101354e-38</v>
+        <v>5.521474612308996e-38</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>5.564273184481073e-38</v>
+        <v>5.511482800498629e-38</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>5.553286445351131e-38</v>
+        <v>5.503055805851971e-38</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>5.544472537149819e-38</v>
+        <v>5.496399530211949e-38</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>5.538002128315427e-38</v>
+        <v>5.491719875421487e-38</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>5.534045887286239e-38</v>
+        <v>5.48922274332351e-38</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>5.53277448250055e-38</v>
+        <v>5.489114035760947e-38</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>5.534358582396643e-38</v>
+        <v>5.491599654576715e-38</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>5.538968855412807e-38</v>
+        <v>5.496885501613748e-38</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>5.546775969987335e-38</v>
+        <v>5.50517747871497e-38</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>5.557950594558514e-38</v>
+        <v>5.516681487723303e-38</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>5.572663397564631e-38</v>
+        <v>5.531603430481676e-38</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>5.591085047443973e-38</v>
+        <v>5.550149208833011e-38</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>5.613386212634838e-38</v>
+        <v>5.572524724620238e-38</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>5.639737561575504e-38</v>
+        <v>5.59893587968628e-38</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>5.670309762704264e-38</v>
+        <v>5.62958857587406e-38</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>5.705273484459408e-38</v>
+        <v>5.664688715026509e-38</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>5.744799395279226e-38</v>
+        <v>5.704442198986551e-38</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>5.789058163602001e-38</v>
+        <v>5.749054929597106e-38</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>5.838220457866025e-38</v>
+        <v>5.798732808701105e-38</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>5.892456946509588e-38</v>
+        <v>5.853681738141472e-38</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>5.951938297970975e-38</v>
+        <v>5.914107619761131e-38</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>6.016835180688479e-38</v>
+        <v>5.98021635540301e-38</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>6.087318263100386e-38</v>
+        <v>6.052213846910034e-38</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>6.163558213644987e-38</v>
+        <v>6.130305996125128e-38</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>6.245725700760566e-38</v>
+        <v>6.214698704891216e-38</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>6.333991392885414e-38</v>
+        <v>6.305597875051224e-38</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>6.428525958457824e-38</v>
+        <v>6.403209408448081e-38</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>6.529500065916079e-38</v>
+        <v>6.507739206924708e-38</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>6.637079955659829e-38</v>
+        <v>6.619388064964663e-38</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>6.751156262336059e-38</v>
+        <v>6.738038889666832e-38</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>6.871186625842906e-38</v>
+        <v>6.863075166158821e-38</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>6.996590752286793e-38</v>
+        <v>6.993836626222309e-38</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>7.12678834777415e-38</v>
+        <v>7.129663001638973e-38</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>7.261199118411404e-38</v>
+        <v>7.269894024190493e-38</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>7.399242770304981e-38</v>
+        <v>7.413869425658544e-38</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>7.540339009561307e-38</v>
+        <v>7.560928937824805e-38</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>7.683907542286813e-38</v>
+        <v>7.710412292470953e-38</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>7.829368074587926e-38</v>
+        <v>7.861659221378669e-38</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>7.976140312571074e-38</v>
+        <v>8.014009456329632e-38</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>8.123643962342678e-38</v>
+        <v>8.166802729105513e-38</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>8.271298730009173e-38</v>
+        <v>8.319378771487997e-38</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>8.418524321676981e-38</v>
+        <v>8.471077315258757e-38</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>8.564740443452532e-38</v>
+        <v>8.621238092199475e-38</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>8.709366801442117e-38</v>
+        <v>8.769200834091687e-38</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>8.851823101752439e-38</v>
+        <v>8.914305272717355e-38</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>8.991529050489785e-38</v>
+        <v>9.055891139858014e-38</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>9.127904353760585e-38</v>
+        <v>9.193298167295346e-38</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>9.260392816554022e-38</v>
+        <v>9.32589319188166e-38</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>9.389131520518528e-38</v>
+        <v>9.453822809141488e-38</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>9.515038158312884e-38</v>
+        <v>9.57811160204755e-38</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>9.639072065465285e-38</v>
+        <v>9.699830991134643e-38</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>9.762192577503924e-38</v>
+        <v>9.82005239693755e-38</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>9.885359029957001e-38</v>
+        <v>9.939847239991079e-38</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>1.00095307583527e-37</v>
+        <v>1.006028694083001e-37</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>1.013566709821923e-37</v>
+        <v>1.018244291998915e-37</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>1.026472738508479e-37</v>
+        <v>1.030738659800329e-37</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>1.039767095447754e-37</v>
+        <v>1.043618939540721e-37</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>1.053545714192572e-37</v>
+        <v>1.056992273273572e-37</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>1.067904528295749e-37</v>
+        <v>1.070965803052361e-37</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>1.082939471310106e-37</v>
+        <v>1.085646670930566e-37</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>1.098746476788463e-37</v>
+        <v>1.101142018961668e-37</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>1.115421478283639e-37</v>
+        <v>1.117558989199146e-37</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>1.133055605191946e-37</v>
+        <v>1.134999721679968e-37</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>1.151565432099822e-37</v>
+        <v>1.153384612561626e-37</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>1.170647600148227e-37</v>
+        <v>1.172405066559692e-37</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>1.189984718396668e-37</v>
+        <v>1.191737878394619e-37</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>1.209259395904656e-37</v>
+        <v>1.211059842786863e-37</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>1.228154241731699e-37</v>
+        <v>1.230047754456877e-37</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>1.246351864937307e-37</v>
+        <v>1.248378408125117e-37</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>1.263534874580987e-37</v>
+        <v>1.265728598512036e-37</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>1.27938587972225e-37</v>
+        <v>1.281775120338089e-37</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>1.293587489420603e-37</v>
+        <v>1.29619476832373e-37</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>1.305827728020398e-37</v>
+        <v>1.308669832292965e-37</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>1.315988561251308e-37</v>
+        <v>1.319079402058389e-37</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>1.324194699792677e-37</v>
+        <v>1.327548890326736e-37</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>1.330586184731934e-37</v>
+        <v>1.334219266175711e-37</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>1.335303057156513e-37</v>
+        <v>1.339231498683018e-37</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>1.338485358153844e-37</v>
+        <v>1.342726556926364e-37</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>1.340273128811358e-37</v>
+        <v>1.344845409983453e-37</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>1.340806410216488e-37</v>
+        <v>1.34572902693199e-37</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>1.340225243456666e-37</v>
+        <v>1.345518376849682e-37</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>1.338669669619321e-37</v>
+        <v>1.344354428814233e-37</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>1.336279729791886e-37</v>
+        <v>1.342378151903347e-37</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>1.333195465061792e-37</v>
+        <v>1.339730515194731e-37</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>1.32955691651647e-37</v>
+        <v>1.336552487766089e-37</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>1.325469179834803e-37</v>
+        <v>1.3329469435711e-37</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>1.320844806478283e-37</v>
+        <v>1.328806857862964e-37</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>1.315530389787576e-37</v>
+        <v>1.323953302806675e-37</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>1.309372464741611e-37</v>
+        <v>1.318207286945199e-37</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>1.302217566319318e-37</v>
+        <v>1.311389818821505e-37</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>1.293912229499625e-37</v>
+        <v>1.303321906978562e-37</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>1.284302989261464e-37</v>
+        <v>1.293824559959337e-37</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>1.273236380583762e-37</v>
+        <v>1.282718786306799e-37</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>1.260558938445449e-37</v>
+        <v>1.269825594563915e-37</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>1.246117197825454e-37</v>
+        <v>1.254965993273654e-37</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>1.229757697060196e-37</v>
+        <v>1.237960998765076e-37</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>1.211349990068793e-37</v>
+        <v>1.218685001023563e-37</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>1.190841601722528e-37</v>
+        <v>1.197193206434318e-37</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>1.168196552232993e-37</v>
+        <v>1.173579074449435e-37</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>1.143378861811777e-37</v>
+        <v>1.147936064521003e-37</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>1.116352550670473e-37</v>
+        <v>1.120357636101117e-37</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>1.087093865214802e-37</v>
+        <v>1.090945293798759e-37</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>1.055940131120551e-37</v>
+        <v>1.060038141867332e-37</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>1.023640642552017e-37</v>
+        <v>1.028246370647137e-37</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>9.909671532085405e-38</v>
+        <v>9.961949494424951e-38</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>9.586914167894655e-38</v>
+        <v>9.645088475577272e-38</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>9.274851734723785e-38</v>
+        <v>9.337314273062086e-38</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>8.974292576715774e-38</v>
+        <v>9.039238957844205e-38</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>8.683882637004017e-38</v>
+        <v>8.749710169074495e-38</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>8.402264627907852e-38</v>
+        <v>8.467572909690143e-38</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>8.128081261746614e-38</v>
+        <v>8.191672182628343e-38</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>7.859975250839641e-38</v>
+        <v>7.920852990826286e-38</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>7.596589307506276e-38</v>
+        <v>7.653960337221167e-38</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>7.336566144065853e-38</v>
+        <v>7.389839224750179e-38</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>7.078548472837712e-38</v>
+        <v>7.127334656350512e-38</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>6.821179006141438e-38</v>
+        <v>6.865291634959612e-38</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>6.563100456295622e-38</v>
+        <v>6.602555163513909e-38</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>6.303180402531755e-38</v>
+        <v>6.338182511000565e-38</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>6.042227197311144e-38</v>
+        <v>6.073062964569158e-38</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>5.782041574829876e-38</v>
+        <v>5.809022583030536e-38</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>5.524432266795911e-38</v>
+        <v>5.547894974550884e-38</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>5.27120800491822e-38</v>
+        <v>5.291513747297417e-38</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>5.024177520905514e-38</v>
+        <v>5.041712509437084e-38</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>4.785149546466514e-38</v>
+        <v>4.800324869136845e-38</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>4.555932813309932e-38</v>
+        <v>4.569184434563655e-38</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>4.338336053144485e-38</v>
+        <v>4.350124813884468e-38</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>4.134135392388852e-38</v>
+        <v>4.14494589436237e-38</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>3.943904944883161e-38</v>
+        <v>3.954204422942897e-38</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>3.766694247620466e-38</v>
+        <v>3.77688040521328e-38</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>3.601454574463214e-38</v>
+        <v>3.611852221485301e-38</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>3.447137199273855e-38</v>
+        <v>3.457998252070747e-38</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>3.302693395914836e-38</v>
+        <v>3.314196877281401e-38</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>3.167074438248605e-38</v>
+        <v>3.179326477429047e-38</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>3.039231600137611e-38</v>
+        <v>3.052265432825469e-38</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>2.918116155444298e-38</v>
+        <v>2.93189212378245e-38</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>2.802679378031118e-38</v>
+        <v>2.817084930611776e-38</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>2.691872541760516e-38</v>
+        <v>2.706722233625229e-38</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>2.584646920494942e-38</v>
+        <v>2.599682413134595e-38</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>2.479953788096842e-38</v>
+        <v>2.494843849451656e-38</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>2.376744418428665e-38</v>
+        <v>2.391084922888197e-38</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>2.273970953545017e-38</v>
+        <v>2.287284954125306e-38</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>2.171399198244766e-38</v>
+        <v>2.183204570431833e-38</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>2.071118315940579e-38</v>
+        <v>2.081120910083805e-38</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>1.97562947236974e-38</v>
+        <v>1.983757365490698e-38</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>1.887433833269532e-38</v>
+        <v>1.893837329061988e-38</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>1.809032564377241e-38</v>
+        <v>1.814084193207151e-38</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>1.74292683143015e-38</v>
+        <v>1.747221350335663e-38</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>1.691617800165544e-38</v>
+        <v>1.695972192856999e-38</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>1.655602507239248e-38</v>
+        <v>1.660896857505488e-38</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>1.625152931355589e-38</v>
+        <v>1.631518559867548e-38</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>1.589627989915592e-38</v>
+        <v>1.596367454044387e-38</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>1.549030971592463e-38</v>
+        <v>1.555429076891891e-38</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>1.506391628146446e-38</v>
+        <v>1.51194602060404e-38</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>1.464739922469181e-38</v>
+        <v>1.469161104592737e-38</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>1.427105817452587e-38</v>
+        <v>1.430317148270174e-38</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>1.396519275988288e-38</v>
+        <v>1.398656971048239e-38</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>1.37601026096816e-38</v>
+        <v>1.377423392339081e-38</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>1.368481755100883e-38</v>
+        <v>1.369723375834814e-38</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>1.373658705793206e-38</v>
+        <v>1.375263714717645e-38</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>1.387938030093275e-38</v>
+        <v>1.390190552395207e-38</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>1.407559645852615e-38</v>
+        <v>1.410482059301984e-38</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>1.428763470922746e-38</v>
+        <v>1.432116405872461e-38</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>1.448075439061424e-38</v>
+        <v>1.451395292638889e-38</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>1.464064790954659e-38</v>
+        <v>1.466931729665154e-38</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>1.4761896952357e-38</v>
+        <v>1.478344247825048e-38</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>1.483911968571813e-38</v>
+        <v>1.485255504506923e-38</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>1.486693427630267e-38</v>
+        <v>1.487288157099136e-38</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>1.483998730732516e-38</v>
+        <v>1.484066717234882e-38</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>1.475516032560054e-38</v>
+        <v>1.475361533072576e-38</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>1.461314400774623e-38</v>
+        <v>1.461191507268079e-38</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>1.441500061659259e-38</v>
+        <v>1.441599789333938e-38</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>1.416179241497e-38</v>
+        <v>1.416629528782701e-38</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>1.38545816657088e-38</v>
+        <v>1.386323875126912e-38</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>1.349466336279742e-38</v>
+        <v>1.350751448102902e-38</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>1.308683583016495e-38</v>
+        <v>1.310364273770065e-38</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>1.263860503383812e-38</v>
+        <v>1.265910704003069e-38</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>1.215754721484546e-38</v>
+        <v>1.218146781610778e-38</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>1.165123861421552e-38</v>
+        <v>1.167828549402058e-38</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>1.112725547297684e-38</v>
+        <v>1.115712050185774e-38</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>1.059317403215798e-38</v>
+        <v>1.062553326770792e-38</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>1.005657053278746e-38</v>
+        <v>1.009108421965976e-38</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>9.525021215893838e-39</v>
+        <v>9.561333785801923e-39</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>9.006081786415448e-39</v>
+        <v>9.043821967000625e-39</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>8.504943156537927e-39</v>
+        <v>8.543736507821924e-39</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>8.022266665196787e-39</v>
+        <v>8.061759592163826e-39</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>7.558201946293097e-39</v>
+        <v>7.598064411586755e-39</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>7.112898633727935e-39</v>
+        <v>7.152824157651144e-39</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>6.686506361402369e-39</v>
+        <v>6.726212021917422e-39</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>6.279174763217474e-39</v>
+        <v>6.318401195946014e-39</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>5.891053473074686e-39</v>
+        <v>5.929564871297716e-39</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>5.522292124873978e-39</v>
+        <v>5.559876239531853e-39</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>5.173040352517855e-39</v>
+        <v>5.209508492210286e-39</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>4.84344778990603e-39</v>
+        <v>4.878634820892086e-39</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>4.533664070940854e-39</v>
+        <v>4.567428417138963e-39</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>4.243838829522474e-39</v>
+        <v>4.276062472510411e-39</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>3.974121699552268e-39</v>
+        <v>4.004710178567169e-39</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>3.72466167192649e-39</v>
+        <v>3.753544080908085e-39</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>3.495301921322694e-39</v>
+        <v>3.522429502662879e-39</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>3.285091426784195e-39</v>
+        <v>3.310433919336455e-39</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>3.092951910744894e-39</v>
+        <v>3.116496964653701e-39</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>2.917805095638698e-39</v>
+        <v>2.939558272339509e-39</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>2.758572703899509e-39</v>
+        <v>2.778557476118767e-39</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>2.614176457961232e-39</v>
+        <v>2.632434209716364e-39</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>2.483538080257771e-39</v>
+        <v>2.500128106857193e-39</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>2.36557929322303e-39</v>
+        <v>2.38057880126614e-39</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>2.259221819290911e-39</v>
+        <v>2.272725926668097e-39</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>2.163387380895321e-39</v>
+        <v>2.175509116787953e-39</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>2.076997700470163e-39</v>
+        <v>2.087868005350598e-39</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>1.99897450044934e-39</v>
+        <v>2.008742226080922e-39</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>1.928239503266758e-39</v>
+        <v>1.937071412703813e-39</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>1.863776253749547e-39</v>
+        <v>1.871848466337504e-39</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>1.805047318596566e-39</v>
+        <v>1.812479022792754e-39</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>1.751738933537911e-39</v>
+        <v>1.758561435529105e-39</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>1.703538596484052e-39</v>
+        <v>1.709695145525605e-39</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>1.660133805345458e-39</v>
+        <v>1.665479593761303e-39</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>1.6212120580326e-39</v>
+        <v>1.625514221215248e-39</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>1.586460852455948e-39</v>
+        <v>1.589398468866487e-39</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>1.55556768652597e-39</v>
+        <v>1.556731777694068e-39</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>1.528220058153137e-39</v>
+        <v>1.527113588677039e-39</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>1.503755254500565e-39</v>
+        <v>1.499891865026044e-39</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>1.479668103989541e-39</v>
+        <v>1.473091545412144e-39</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>1.452849671712916e-39</v>
+        <v>1.444304020833671e-39</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>1.420190672552791e-39</v>
+        <v>1.411120430811186e-39</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>1.378582389464604e-39</v>
+        <v>1.371132427115443e-39</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>1.330025875042632e-39</v>
+        <v>1.326539306892947e-39</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>1.292345548089965e-39</v>
+        <v>1.293638798958296e-39</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>1.265443021948693e-39</v>
+        <v>1.270458288839276e-39</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>1.234661161281964e-39</v>
+        <v>1.240501741247615e-39</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>1.193069503912129e-39</v>
+        <v>1.196360904053425e-39</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>1.146832728671332e-39</v>
+        <v>1.145949212914262e-39</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>1.103326647429789e-39</v>
+        <v>1.098597163621974e-39</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>1.069488462119502e-39</v>
+        <v>1.063078783146323e-39</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>1.0450184066171e-39</v>
+        <v>1.038986484592866e-39</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>1.023679462006464e-39</v>
+        <v>1.018380028975871e-39</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>9.994971418817671e-40</v>
+        <v>9.936731072096213e-40</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>9.713623038268879e-40</v>
+        <v>9.63683748740674e-40</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>9.41200460587424e-40</v>
+        <v>9.312245533944743e-40</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>9.109823472871003e-40</v>
+        <v>8.991675322005297e-40</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>8.82096306538747e-40</v>
+        <v>8.695405677869828e-40</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>8.543392134629984e-40</v>
+        <v>8.42064846035575e-40</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>8.272385799781964e-40</v>
+        <v>8.160711337806111e-40</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>8.003219180026833e-40</v>
+        <v>7.908901978563954e-40</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>7.731167394548e-40</v>
+        <v>7.658528050972319e-40</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>7.451505562528893e-40</v>
+        <v>7.402897223374258e-40</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>7.159508803152928e-40</v>
+        <v>7.13531716411281e-40</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>6.850452235603522e-40</v>
+        <v>6.849095541531023e-40</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>6.519610979064092e-40</v>
+        <v>6.537540023971939e-40</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>6.165619090442279e-40</v>
+        <v>6.197525700147185e-40</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>5.813136869754035e-40</v>
+        <v>5.85356929949089e-40</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>5.498977015321749e-40</v>
+        <v>5.543094225155153e-40</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>5.260020802322476e-40</v>
+        <v>5.303596713576942e-40</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>5.133149505933282e-40</v>
+        <v>5.172573001193239e-40</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>5.155237333048251e-40</v>
+        <v>5.18751227465555e-40</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>5.348888524984554e-40</v>
+        <v>5.371671099144683e-40</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>5.692509369780608e-40</v>
+        <v>5.704223751387074e-40</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>6.155975097600775e-40</v>
+        <v>6.155835775778191e-40</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>6.709160938609413e-40</v>
+        <v>6.697172716713505e-40</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>7.32194212297088e-40</v>
+        <v>7.298900118588481e-40</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>7.964193880849541e-40</v>
+        <v>7.931683525798595e-40</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>8.60579144240975e-40</v>
+        <v>8.566188482739309e-40</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>9.21661003781587e-40</v>
+        <v>9.173080533806096e-40</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>9.767880816931732e-40</v>
+        <v>9.724290893677677e-40</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>1.024603339536115e-39</v>
+        <v>1.020593763960699e-39</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>1.064704147413788e-39</v>
+        <v>1.061304768416674e-39</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>1.096702648116745e-39</v>
+        <v>1.094078583416623e-39</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>1.120210984435309e-39</v>
+        <v>1.118431689641238e-39</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>1.134844629924373e-39</v>
+        <v>1.133884172139035e-39</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>1.140593377612661e-39</v>
+        <v>1.140361183636909e-39</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>1.138159056322429e-39</v>
+        <v>1.138558402324543e-39</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>1.128323254919713e-39</v>
+        <v>1.129257818266954e-39</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>1.111867562270562e-39</v>
+        <v>1.113241421529171e-39</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>1.089574223888109e-39</v>
+        <v>1.09129192818329e-39</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>1.062274079636821e-39</v>
+        <v>1.064245781551801e-39</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>1.03087911586489e-39</v>
+        <v>1.033029142739832e-39</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>9.963090274935895e-40</v>
+        <v>9.985766956627654e-40</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>9.594835094441894e-40</v>
+        <v>9.618231242359827e-40</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>9.213222566379624e-40</v>
+        <v>9.237031123748672e-40</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>8.82744963996179e-40</v>
+        <v>8.851513439948017e-40</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>8.446067528759204e-40</v>
+        <v>8.470367384071024e-40</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>8.07228248459168e-40</v>
+        <v>8.096838601275799e-40</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>7.70666117215649e-40</v>
+        <v>7.731484463211192e-40</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>7.349751584800969e-40</v>
+        <v>7.374843325788718e-40</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>7.002101715872457e-40</v>
+        <v>7.027453544919895e-40</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>6.664259558718295e-40</v>
+        <v>6.689853476516235e-40</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>6.336773106685819e-40</v>
+        <v>6.362581476489251e-40</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>6.020190353122364e-40</v>
+        <v>6.046175900750457e-40</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>5.715059291375271e-40</v>
+        <v>5.741175105211369e-40</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>5.421927914791877e-40</v>
+        <v>5.4481174457835e-40</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>5.141344216719523e-40</v>
+        <v>5.167541278378366e-40</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>4.873856190505543e-40</v>
+        <v>4.899984958907477e-40</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>4.619974346198205e-40</v>
+        <v>4.645949937153732e-40</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>4.37968783168483e-40</v>
+        <v>4.40542432871e-40</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>4.152603737814038e-40</v>
+        <v>4.178020075071376e-40</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>3.938320379964227e-40</v>
+        <v>3.963340477388039e-40</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>3.736436073513792e-40</v>
+        <v>3.760988836810161e-40</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>3.546549133841129e-40</v>
+        <v>3.57056845448792e-40</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>3.368257876324636e-40</v>
+        <v>3.391682631571491e-40</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>3.201160616342709e-40</v>
+        <v>3.223934669211052e-40</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>3.044855669273744e-40</v>
+        <v>3.066927868556777e-40</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>2.898941350496138e-40</v>
+        <v>2.920265530758843e-40</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>2.763015975388414e-40</v>
+        <v>2.783550956967552e-40</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>2.636677859328589e-40</v>
+        <v>2.6563874483327e-40</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>2.519525317695548e-40</v>
+        <v>2.538378306004952e-40</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>2.411156665867236e-40</v>
+        <v>2.42912683113403e-40</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>2.311170219222466e-40</v>
+        <v>2.328236324870531e-40</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>2.219164293139335e-40</v>
+        <v>2.235310088364328e-40</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>2.134737202996339e-40</v>
+        <v>2.149951422765698e-40</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>2.057487264171875e-40</v>
+        <v>2.071763629224815e-40</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>1.98701279204434e-40</v>
+        <v>2.000350008891857e-40</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>1.92291210199213e-40</v>
+        <v>1.935313862917e-40</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>1.864783509393641e-40</v>
+        <v>1.876258492450419e-40</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>1.812225329627271e-40</v>
+        <v>1.822787198642291e-40</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>1.764835878071416e-40</v>
+        <v>1.774503282642791e-40</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>1.722213470104472e-40</v>
+        <v>1.731010045602096e-40</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>1.683956421104836e-40</v>
+        <v>1.69191078867038e-40</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>1.649663046450905e-40</v>
+        <v>1.656808812997821e-40</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>1.618931661521075e-40</v>
+        <v>1.625307419734594e-40</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>1.591360581693742e-40</v>
+        <v>1.597009910030875e-40</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>1.566548122347304e-40</v>
+        <v>1.571519585036841e-40</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>1.544092598860156e-40</v>
+        <v>1.548439745902665e-40</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>1.523592326610696e-40</v>
+        <v>1.527373693778527e-40</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>1.50464562097732e-40</v>
+        <v>1.5079247298146e-40</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>1.486850797338424e-40</v>
+        <v>1.489696155161062e-40</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>1.469806171072406e-40</v>
+        <v>1.472291270968087e-40</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>1.453110057557661e-40</v>
+        <v>1.455313378385852e-40</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>1.436360772172587e-40</v>
+        <v>1.438365778564532e-40</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>1.419156630295579e-40</v>
+        <v>1.421051772654305e-40</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>1.401097539536759e-40</v>
+        <v>1.402976215455957e-40</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>1.381986079749503e-40</v>
+        <v>1.383941723094758e-40</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>1.362023953835404e-40</v>
+        <v>1.364140363657322e-40</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>1.341459498907217e-40</v>
+        <v>1.343809709455306e-40</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>1.320541052077701e-40</v>
+        <v>1.323187332800363e-40</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>1.299516950459614e-40</v>
+        <v>1.302510806004149e-40</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>1.278635531165714e-40</v>
+        <v>1.282017701378319e-40</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>1.258145131308758e-40</v>
+        <v>1.261945591234527e-40</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>1.238294088001503e-40</v>
+        <v>1.242532047884429e-40</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>1.219330738356708e-40</v>
+        <v>1.22401464363968e-40</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>1.201503419487147e-40</v>
+        <v>1.20663095081195e-40</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>1.185060468505528e-40</v>
+        <v>1.190618541712847e-40</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>1.170250222524672e-40</v>
+        <v>1.176214988654086e-40</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>1.15732101865728e-40</v>
+        <v>1.163657863947268e-40</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>1.146521194016159e-40</v>
+        <v>1.153184739904096e-40</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>1.138099085714032e-40</v>
+        <v>1.14503318883619e-40</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>1.132303030863668e-40</v>
+        <v>1.139440783055218e-40</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>1.129381366577826e-40</v>
+        <v>1.136645094872834e-40</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>1.129582429969263e-40</v>
+        <v>1.136883696600693e-40</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>1.133154558150736e-40</v>
+        <v>1.14039416055045e-40</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>1.140346088235004e-40</v>
+        <v>1.14741405903376e-40</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>1.151405357334824e-40</v>
+        <v>1.158180964362278e-40</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>1.166580702562954e-40</v>
+        <v>1.17293244884766e-40</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>1.186120461032151e-40</v>
+        <v>1.191906084801559e-40</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>1.210272969855175e-40</v>
+        <v>1.215339444535632e-40</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>1.239286566144781e-40</v>
+        <v>1.243470100361532e-40</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>1.273409587013728e-40</v>
+        <v>1.276535624590915e-40</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>1.312890369574773e-40</v>
+        <v>1.314773589535437e-40</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>1.357913842999238e-40</v>
+        <v>1.358363879823276e-40</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>1.407966923051568e-40</v>
+        <v>1.406851336970274e-40</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>1.462104092729377e-40</v>
+        <v>1.459387381037296e-40</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>1.519373390904674e-40</v>
+        <v>1.515117569307301e-40</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>1.578822856449471e-40</v>
+        <v>1.573187459063247e-40</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>1.639500528235778e-40</v>
+        <v>1.632742607588094e-40</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>1.700454445135604e-40</v>
+        <v>1.692928572164801e-40</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>1.76073264602096e-40</v>
+        <v>1.752890910076326e-40</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>1.819383169763858e-40</v>
+        <v>1.81177517860563e-40</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>1.875454055236305e-40</v>
+        <v>1.86872693503567e-40</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>1.928038450620154e-40</v>
+        <v>1.922917645888456e-40</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>1.976587748295512e-40</v>
+        <v>1.973724540855603e-40</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>2.020724177358178e-40</v>
+        <v>2.020622972373699e-40</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>2.060071019016134e-40</v>
+        <v>2.063088897176456e-40</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>2.094251554477363e-40</v>
+        <v>2.100598271997584e-40</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>2.122889064949847e-40</v>
+        <v>2.132627053570795e-40</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>2.145606831641564e-40</v>
+        <v>2.158651198629797e-40</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>2.162028135760499e-40</v>
+        <v>2.178146663908301e-40</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>2.171776258514633e-40</v>
+        <v>2.190589406140019e-40</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>2.174474481111949e-40</v>
+        <v>2.19545538205866e-40</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>2.169746084760425e-40</v>
+        <v>2.192220548397937e-40</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>2.157214350668062e-40</v>
+        <v>2.180360861891574e-40</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>2.136502560042792e-40</v>
+        <v>2.159352279273235e-40</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>2.107233994092679e-40</v>
+        <v>2.128670757276713e-40</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>2.069186458413602e-40</v>
+        <v>2.087998765701395e-40</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>2.023094586331957e-40</v>
+        <v>2.038297520249606e-40</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>1.970058789441714e-40</v>
+        <v>1.98101707849786e-40</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>1.911180213888776e-40</v>
+        <v>1.917608479709595e-40</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>1.847560005819043e-40</v>
+        <v>1.84952276314825e-40</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>1.780299311378418e-40</v>
+        <v>1.778210968077263e-40</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>1.710499276712802e-40</v>
+        <v>1.705124133760073e-40</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>1.639261047968097e-40</v>
+        <v>1.631713299460119e-40</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>1.567685771290204e-40</v>
+        <v>1.559429504440839e-40</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>1.496860266385628e-40</v>
+        <v>1.489689952455048e-40</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>1.427560588549615e-40</v>
+        <v>1.423177898487984e-40</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>1.360262098363089e-40</v>
+        <v>1.359866430893848e-40</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>1.295427844591998e-40</v>
+        <v>1.2996995605614e-40</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>1.233520876002291e-40</v>
+        <v>1.242621298379398e-40</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>1.175004241359914e-40</v>
+        <v>1.188575655236603e-40</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>1.120340989430818e-40</v>
+        <v>1.137506642021774e-40</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>1.069994168980949e-40</v>
+        <v>1.08935826962367e-40</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>1.024426828776256e-40</v>
+        <v>1.04407454893105e-40</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>9.841009361584685e-41</v>
+        <v>1.001599454201461e-40</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>9.491259103736129e-41</v>
+        <v>9.618650177881777e-41</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>9.18753141349112e-41</v>
+        <v>9.247742079136215e-41</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>8.921059749698436e-41</v>
+        <v>8.902256555488806e-41</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>8.68307757120686e-41</v>
+        <v>8.581179916650428e-41</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>8.464818336865164e-41</v>
+        <v>8.283498472331957e-41</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>8.257515505522131e-41</v>
+        <v>8.00819853224427e-41</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>8.052402536026539e-41</v>
+        <v>7.754266406098244e-41</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>7.841937493605063e-41</v>
+        <v>7.520777901619602e-41</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>7.627989783180224e-41</v>
+        <v>7.307496636294791e-41</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>7.416792410507203e-41</v>
+        <v>7.114505133030929e-41</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>7.214602279838425e-41</v>
+        <v>6.941887661311083e-41</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>7.02767629542632e-41</v>
+        <v>6.789728490618324e-41</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>6.862271361523312e-41</v>
+        <v>6.658111890435727e-41</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>6.724524965951956e-41</v>
+        <v>6.547113721035776e-41</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>6.616751714742853e-41</v>
+        <v>6.456540638374266e-41</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>6.536728171803384e-41</v>
+        <v>6.38587973306556e-41</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>6.481967132620201e-41</v>
+        <v>6.334599521359597e-41</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>6.449981392680485e-41</v>
+        <v>6.302168519506793e-41</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>6.438283747471068e-41</v>
+        <v>6.288055243757238e-41</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>6.444386992478957e-41</v>
+        <v>6.291728210361183e-41</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>6.465803923191115e-41</v>
+        <v>6.312655935568845e-41</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>6.500075841869422e-41</v>
+        <v>6.35027825647386e-41</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>6.545423632878639e-41</v>
+        <v>6.403351318605532e-41</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>6.600761326980664e-41</v>
+        <v>6.469933929610746e-41</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>6.665034174903322e-41</v>
+        <v>6.548053488382007e-41</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>6.737187427374436e-41</v>
+        <v>6.635737393811827e-41</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>6.816166335121833e-41</v>
+        <v>6.731013044792714e-41</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>6.900916148873337e-41</v>
+        <v>6.83190784021718e-41</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>6.990382119356774e-41</v>
+        <v>6.936449178977732e-41</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>7.083509497299968e-41</v>
+        <v>7.042664459966877e-41</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>7.179206153247296e-41</v>
+        <v>7.148657739449133e-41</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>7.276106367099348e-41</v>
+        <v>7.253094139414838e-41</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>7.372722832539802e-41</v>
+        <v>7.354888124661154e-41</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>7.467567691627422e-41</v>
+        <v>7.452955291229469e-41</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>7.559153086420961e-41</v>
+        <v>7.546211235161159e-41</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>7.645991158979184e-41</v>
+        <v>7.633571552497616e-41</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>7.726594051360851e-41</v>
+        <v>7.713951839280224e-41</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>7.799473905624719e-41</v>
+        <v>7.786267691550366e-41</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>7.863142863829548e-41</v>
+        <v>7.849434705349428e-41</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>7.916106414160681e-41</v>
+        <v>7.90236014565692e-41</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>7.956220429605927e-41</v>
+        <v>7.943137918967167e-41</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>7.98015516148567e-41</v>
+        <v>7.968377459971669e-41</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>7.98445468396509e-41</v>
+        <v>7.974530221744174e-41</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>7.965663071209363e-41</v>
+        <v>7.958047657358427e-41</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>7.920324397383657e-41</v>
+        <v>7.915381219888163e-41</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>7.844982736653156e-41</v>
+        <v>7.842982362407132e-41</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>7.736182163183034e-41</v>
+        <v>7.737302537989075e-41</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>7.590466751138466e-41</v>
+        <v>7.594793199707734e-41</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>7.404383048500716e-41</v>
+        <v>7.411908277718124e-41</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>7.176662335012181e-41</v>
+        <v>7.187289317553086e-41</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>6.912228587301306e-41</v>
+        <v>6.925778735341677e-41</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>6.617095459657098e-41</v>
+        <v>6.633310063133716e-41</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>6.297276606370519e-41</v>
+        <v>6.315816832980947e-41</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>5.958786998105716e-41</v>
+        <v>5.979233895109995e-41</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>5.612207256492205e-41</v>
+        <v>5.63406799950718e-41</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>5.282905617327721e-41</v>
+        <v>5.305633749447542e-41</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>4.999238788270942e-41</v>
+        <v>5.022238310249647e-41</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>4.789563476980217e-41</v>
+        <v>4.812188847231733e-41</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>4.682236167657101e-41</v>
+        <v>4.703792304520739e-41</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>4.690659746712128e-41</v>
+        <v>4.710553633856202e-41</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>4.772783629509157e-41</v>
+        <v>4.791086524837357e-41</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>4.873705682692636e-41</v>
+        <v>4.891283412354733e-41</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>4.939599861467859e-41</v>
+        <v>4.958079811168895e-41</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>4.944591952318303e-41</v>
+        <v>4.965505653356593e-41</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>4.892663299216745e-41</v>
+        <v>4.916530618296713e-41</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>4.789252598171296e-41</v>
+        <v>4.815537033571003e-41</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>4.639798545190067e-41</v>
+        <v>4.666907226761216e-41</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>4.449740340381125e-41</v>
+        <v>4.475024125870496e-41</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>4.227972789085301e-41</v>
+        <v>4.248386547574984e-41</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>3.99509741003807e-41</v>
+        <v>4.009436894641706e-41</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>3.77419236508338e-41</v>
+        <v>3.783567440158685e-41</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>3.588094364655095e-41</v>
+        <v>3.595903999648038e-41</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>3.443437532872256e-41</v>
+        <v>3.453691765324076e-41</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>3.320702512107578e-41</v>
+        <v>3.335313836263181e-41</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>3.1979941473313e-41</v>
+        <v>3.216531462314462e-41</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>3.053955736591846e-41</v>
+        <v>3.073720842634925e-41</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>2.880381359915587e-41</v>
+        <v>2.898277246015139e-41</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>2.682656274108542e-41</v>
+        <v>2.697117971098942e-41</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>2.466792293403748e-41</v>
+        <v>2.477875878584231e-41</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>2.238621588119312e-41</v>
+        <v>2.247652743749541e-41</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>2.003320134605922e-41</v>
+        <v>2.01161042062135e-41</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>1.765914123672166e-41</v>
+        <v>1.7744679487981e-41</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>1.531429746126632e-41</v>
+        <v>1.540944367878235e-41</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>1.304893192777912e-41</v>
+        <v>1.315758717460198e-41</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>1.091330654434594e-41</v>
+        <v>1.103630037142432e-41</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>8.957683219052665e-42</v>
+        <v>9.092773665233819e-42</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>7.232323859985202e-42</v>
+        <v>7.374197452014896e-42</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>5.787490375230687e-42</v>
+        <v>5.927762127753245e-42</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>4.67265705395711e-42</v>
+        <v>4.799937942115157e-42</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>3.882364046368356e-42</v>
+        <v>3.986967024293062e-42</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>3.32126880019604e-42</v>
+        <v>3.402908742567193e-42</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>2.88632102296375e-42</v>
+        <v>2.954710585920849e-42</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>2.513574029216704e-42</v>
+        <v>2.580910895330604e-42</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>2.201351618822492e-42</v>
+        <v>2.270354820665354e-42</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>1.95256835157552e-42</v>
+        <v>2.016506821828972e-42</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>1.763020936807417e-42</v>
+        <v>1.813799628824421e-42</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>1.625320356207212e-42</v>
+        <v>1.657099339120911e-42</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>1.532062660930029e-42</v>
+        <v>1.541274081248802e-42</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>1.475843902130994e-42</v>
+        <v>1.461191983738457e-42</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>1.449260130965233e-42</v>
+        <v>1.411721175120235e-42</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>1.444912041249198e-42</v>
+        <v>1.38773235373713e-42</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>1.456974188989225e-42</v>
+        <v>1.384967384414901e-42</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>1.483479181754476e-42</v>
+        <v>1.401303646277764e-42</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>1.52303995978e-42</v>
+        <v>1.434939745029128e-42</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>1.574269463300847e-42</v>
+        <v>1.484074286372402e-42</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>1.635780632552067e-42</v>
+        <v>1.546905876010996e-42</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>1.70618640776871e-42</v>
+        <v>1.62163311964832e-42</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>1.784099729185826e-42</v>
+        <v>1.70645462298778e-42</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>1.868133537038466e-42</v>
+        <v>1.799568991732788e-42</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>1.956900771561679e-42</v>
+        <v>1.899174831586752e-42</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>2.049014372990514e-42</v>
+        <v>2.00347074825308e-42</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>2.143087281560023e-42</v>
+        <v>2.110655347435183e-42</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>2.237732437505254e-42</v>
+        <v>2.218927234836469e-42</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>2.331562781061259e-42</v>
+        <v>2.326485016160348e-42</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>2.423191252463086e-42</v>
+        <v>2.431527297110228e-42</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>2.511230791945787e-42</v>
+        <v>2.53225268338952e-42</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>2.59429433974441e-42</v>
+        <v>2.626859780701629e-42</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>2.670994836094006e-42</v>
+        <v>2.713547194749969e-42</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>2.739945221229626e-42</v>
+        <v>2.790513531237946e-42</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>2.799758435386318e-42</v>
+        <v>2.85595739586897e-42</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>2.849093896235017e-42</v>
+        <v>2.90814557351172e-42</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>2.887482258196191e-42</v>
+        <v>2.946622892739395e-42</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>2.915227938928467e-42</v>
+        <v>2.972069238969218e-42</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>2.932662252754752e-42</v>
+        <v>2.985203953153867e-42</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>2.940116513997959e-42</v>
+        <v>2.986746376246029e-42</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>2.937922036981006e-42</v>
+        <v>2.977415849198368e-42</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>2.926410136026813e-42</v>
+        <v>2.957931712963601e-42</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>2.905912125458247e-42</v>
+        <v>2.929013308494335e-42</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>2.876759319598298e-42</v>
+        <v>2.891379976743358e-42</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>2.839283032769806e-42</v>
+        <v>2.845751058663254e-42</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>2.793814579295707e-42</v>
+        <v>2.792845895206734e-42</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>2.740685273498913e-42</v>
+        <v>2.733383827326478e-42</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>2.680226429702334e-42</v>
+        <v>2.668084195975167e-42</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>2.612769362228882e-42</v>
+        <v>2.597666342105479e-42</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>2.538645385401469e-42</v>
+        <v>2.522849606670094e-42</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>2.458185813543007e-42</v>
+        <v>2.444353330621693e-42</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>2.371721960976407e-42</v>
+        <v>2.362896854912954e-42</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>2.279585142024581e-42</v>
+        <v>2.279199520496559e-42</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>2.18210667101044e-42</v>
+        <v>2.193980668325186e-42</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>2.079617862256896e-42</v>
+        <v>2.107959639351514e-42</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>1.972925257411918e-42</v>
+        <v>2.021728130102893e-42</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>1.868841708939031e-42</v>
+        <v>1.934264562675733e-42</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.778296872403732e-42</v>
+        <v>1.843441600009844e-42</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.712300744550545e-42</v>
+        <v>1.747110325680627e-42</v>
       </c>
     </row>
   </sheetData>
